--- a/Material intensities/Material Classification OSM.xlsx
+++ b/Material intensities/Material Classification OSM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Infrastructure\Output\5. Material intensities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Material intensities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B35867-2B75-4D18-8C4F-7E6C139B25E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E03108-629E-4D7A-9EC9-2B9FCB22764D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2F6EFE5F-0BF0-40BD-B47A-3E39CC793726}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2F6EFE5F-0BF0-40BD-B47A-3E39CC793726}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OSM - Types" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
-  <si>
-    <t>Paving_a.replace({'asphalt': 'paved', 'paved': 'paved', 'concrete': 'paved', 'concrete:plates': 'paved', 'concrete:lanes': 'paved', 'asphalt;sand': 'paved', 'chipseal': 'paved'}, inplace=True)</t>
-  </si>
-  <si>
-    <t>Paving_a.replace({'gravel': 'unpaved - construction', 'compacted': 'unpaved - construction', 'fine_gravel': 'unpaved - construction', 'laterite': 'unpaved - construction', 'grass_paver': 'unpaved - construction'}, inplace=True)</t>
-  </si>
-  <si>
-    <t>Paving_a.replace({'paving_stones': 'paving_stone', 'cobblestone': 'stone', 'sett': 'stone', 'pebblestone': 'stone', 'unhewn_cobblestone': 'stone', 'cobblestone_flattened': 'stone'}, inplace=True)</t>
-  </si>
-  <si>
-    <t>Paving_a.replace({'brick': 'brick', 'bricks': 'brick'}, inplace=True)</t>
-  </si>
-  <si>
-    <t>Paving_a.replace({'ground': 'unpaved - unmanaged', 'dirt': 'unpaved - unmanaged', 'unpaved': 'unpaved - unmanaged', 'sand': 'unpaved - unmanaged', 'earth': 'unpaved - unmanaged', 'grass': 'unpaved - unmanaged', 'ice': 'unpaved - unmanaged', 'dirt/sand': 'unpaved - unmanaged', 'mud': 'unpaved - unmanaged', 'laterite': 'unpaved - unmanaged', 'soil': 'unpaved - unmanaged', 'salt': 'unpaved - unmanaged', 'clay': 'unpaved - unmanaged', 'karral': 'unpaved - unmanaged', 'ice_road': 'unpaved - unmanaged'}, inplace=True)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>OSM Types included</t>
   </si>
@@ -546,319 +531,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73333D9-F757-4399-B926-60311D0F1C64}">
-  <dimension ref="B2:G35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="G22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="D25:D35"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="C25:C35"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C2:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Material intensities/Material Classification OSM.xlsx
+++ b/Material intensities/Material Classification OSM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Material intensities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Material intensities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E03108-629E-4D7A-9EC9-2B9FCB22764D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{744992F1-BE32-447D-B6E1-4C8EF600FB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2F6EFE5F-0BF0-40BD-B47A-3E39CC793726}"/>
+    <workbookView xWindow="10080" yWindow="495" windowWidth="14370" windowHeight="19110" activeTab="1" xr2:uid="{2F6EFE5F-0BF0-40BD-B47A-3E39CC793726}"/>
   </bookViews>
   <sheets>
-    <sheet name="OSM - Types" sheetId="1" r:id="rId1"/>
+    <sheet name="Coversheet" sheetId="2" r:id="rId1"/>
+    <sheet name="OSM - Types" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>OSM Types included</t>
   </si>
@@ -174,14 +175,93 @@
   </si>
   <si>
     <t>Steel</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircoMod – Circular Economy Modelling for Climate Change Mitigation 101056868 </t>
+  </si>
+  <si>
+    <t>Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Engelenburg, M., Deetman, S., Fishman, T., Behrens, P., &amp; van der Voet, E. (2024). TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In review</t>
+    </r>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>m.van.engelenburg@cml.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>OSM Classification types v.1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -206,10 +286,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,9 +300,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2" xr:uid="{C850E072-4977-4B2A-AF32-414D770591BF}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2 2" xfId="3" xr:uid="{D615A959-12D6-4473-9520-38E1A3AC1809}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -232,6 +321,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC30197-B0B6-4491-A1B1-B1D490805D36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="190501"/>
+          <a:ext cx="3091139" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CircoMod – Circular Economy Modelling for Climate Change Mitigation –  iamconsortium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CF8F38-7462-4308-93EB-4207CD8AA663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="190500"/>
+          <a:ext cx="2600325" cy="1715303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,20 +746,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C699CC-E948-4CB8-A1BF-E5674000FCFB}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B12:C24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{979533F7-A5B0-4B17-B170-9B9720029A42}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73333D9-F757-4399-B926-60311D0F1C64}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B24" sqref="B24:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -565,49 +871,49 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -618,35 +924,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -657,7 +963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -668,35 +974,35 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -707,14 +1013,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -725,7 +1031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -736,7 +1042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -747,70 +1053,70 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -819,16 +1125,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C2:C8"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B24:B34"/>
-    <mergeCell ref="C24:C34"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C2:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
